--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.6767306861612881</v>
+        <v>-0.5853090391950161</v>
       </c>
       <c r="D2">
-        <v>0.4986700608535375</v>
+        <v>0.5642960240100428</v>
       </c>
       <c r="E2">
         <v>0.8473474436855581</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.8379264837649738</v>
+        <v>-0.9375477372860459</v>
       </c>
       <c r="D3">
-        <v>0.4021912565917143</v>
+        <v>0.358656216893062</v>
       </c>
       <c r="E3">
         <v>0.8473474436855581</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.222049952204753</v>
+        <v>0.2105671085497922</v>
       </c>
       <c r="D4">
-        <v>0.824302002453047</v>
+        <v>0.8351631597310409</v>
       </c>
       <c r="E4">
         <v>0.8473474436855581</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1317546212416526</v>
+        <v>-0.1550878283199024</v>
       </c>
       <c r="D5">
-        <v>0.89519416637788</v>
+        <v>0.8781661814975106</v>
       </c>
       <c r="E5">
         <v>0.8473474436855581</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1454253380375486</v>
+        <v>-0.1200180356651105</v>
       </c>
       <c r="D6">
-        <v>0.8843925159857307</v>
+        <v>0.9055581682530507</v>
       </c>
       <c r="E6">
         <v>0.8563943351028054</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.7362677224599993</v>
+        <v>0.5871163470962277</v>
       </c>
       <c r="D7">
-        <v>0.4616706368176746</v>
+        <v>0.5631030576436031</v>
       </c>
       <c r="E7">
         <v>0.8563943351028054</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4422521875934756</v>
+        <v>0.404194577640341</v>
       </c>
       <c r="D8">
-        <v>0.6583636854484394</v>
+        <v>0.6899721026778156</v>
       </c>
       <c r="E8">
         <v>0.8563943351028054</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.9757758661458157</v>
+        <v>1.051841271196843</v>
       </c>
       <c r="D9">
-        <v>0.3293161102573432</v>
+        <v>0.3042892145689851</v>
       </c>
       <c r="E9">
         <v>0.8584822010947459</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.6543715110749251</v>
+        <v>0.7194869505395031</v>
       </c>
       <c r="D10">
-        <v>0.5129621059463552</v>
+        <v>0.4794149507461967</v>
       </c>
       <c r="E10">
         <v>0.8584822010947459</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.3366519929735718</v>
+        <v>-0.3632082105602462</v>
       </c>
       <c r="D11">
-        <v>0.7364213286616383</v>
+        <v>0.7199159757791866</v>
       </c>
       <c r="E11">
         <v>0.8439009964091633</v>
